--- a/biology/Botanique/Galeopsis/Galeopsis.xlsx
+++ b/biology/Botanique/Galeopsis/Galeopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Galeopsis regroupe une dizaine d'espèces de plantes herbacées de la famille des Lamiacées originaires des régions tempérées d'Eurasie[2].
-Le nom vernaculaire de galéopside, ou galéopsis, veut dire à forme de belette du fait de l'aspect de la corolle en forme de gueule de carnivore[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Galeopsis regroupe une dizaine d'espèces de plantes herbacées de la famille des Lamiacées originaires des régions tempérées d'Eurasie.
+Le nom vernaculaire de galéopside, ou galéopsis, veut dire à forme de belette du fait de l'aspect de la corolle en forme de gueule de carnivore.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (12 mars 2013)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (12 mars 2013) :
 Galeopsis × acuminata Rchb. (1831)
 Galeopsis bifida Boenn. (1824)
 Galeopsis × carinthiaca Porsch ex Fiori (1926)
@@ -530,7 +544,7 @@
 Galeopsis speciosa Mill. (1768)
 Galeopsis tetrahit L. (1753)
 Galeopsis × wirtgenii F.Ludw. ex Briq. (1877)
-Selon NCBI  (12 mars 2013)[5] :
+Selon NCBI  (12 mars 2013) :
 Galeopsis angustifolia
 Galeopsis bifida
 Galeopsis bifida × Galeopsis pubescens
@@ -543,7 +557,7 @@
 Galeopsis speciosa
 Galeopsis sulphurea
 Galeopsis tetrahit
-Selon Tropicos                                           (12 mars 2013)[6] :
+Selon Tropicos                                           (12 mars 2013) :
 Galeopsis agrigena Koso-Pol.
 Galeopsis albertii Sennen
 Galeopsis alpicola Nyman
@@ -639,7 +653,7 @@
 Galeopsis villosa Huds.
 Galeopsis violeti Sennen
 Galeopsis walteriana Schltdl.
-Selon World Register of Marine Species                               (12 mars 2013)[7] :
+Selon World Register of Marine Species                               (12 mars 2013) :
 Galeopsis adherens Gordon, 1989
 Galeopsis bipatens (Harmer, 1957)
 Galeopsis bispiramina (Hayward &amp; Cook, 1979)
